--- a/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>软件工程系列课程教学辅助网站管理员优先级打分表（作者：G18）</t>
   </si>
@@ -386,24 +386,6 @@
   </si>
   <si>
     <t>对网站删除友情链接</t>
-  </si>
-  <si>
-    <t>添加网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站添加首页动图</t>
-  </si>
-  <si>
-    <t>修改网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站修改首页动图</t>
-  </si>
-  <si>
-    <t>删除网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站删除首页动图</t>
   </si>
   <si>
     <t>合计</t>
@@ -421,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -471,20 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -501,6 +469,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -509,9 +522,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,30 +540,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,29 +562,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +577,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,181 +598,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,21 +783,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,30 +811,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -878,6 +821,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +868,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +891,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,142 +903,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,14 +1386,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
@@ -1423,1110 +1404,884 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="135" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="121.5" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="135" spans="1:6">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" ht="81" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" ht="108" spans="1:6">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" ht="135" spans="1:6">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="7" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" ht="94.5" spans="1:6">
+      <c r="A65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="7" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" ht="94.5" spans="1:6">
+      <c r="A66" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="7" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" ht="94.5" spans="1:6">
+      <c r="A68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="7" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" ht="94.5" spans="1:6">
+      <c r="A70" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="7" t="s">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="4"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:F9"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:F13"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="C14:F18"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:F29"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:F67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:F69"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:F71"/>
-    <mergeCell ref="A80:G84"/>
+    <mergeCell ref="A77:G81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>通过管理员账号密码登录系统</t>
   </si>
   <si>
-    <t>注销</t>
-  </si>
-  <si>
-    <t>退出管理员登录状态</t>
-  </si>
-  <si>
     <t>处理用户注册申请</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>修改指定用户的信息（邮箱、手机等可修改信息）</t>
   </si>
   <si>
-    <t>添加校外用户</t>
-  </si>
-  <si>
-    <t>在教师处得到相关信息后，手动添加一个用户，其中学工号标识为零</t>
-  </si>
-  <si>
     <t>备份</t>
   </si>
   <si>
@@ -376,16 +364,28 @@
     <t>对网站添加友情链接</t>
   </si>
   <si>
-    <t>修改网站友情链接</t>
-  </si>
-  <si>
-    <t>对网站修改友情链接</t>
-  </si>
-  <si>
     <t>删除网站友情链接</t>
   </si>
   <si>
     <t>对网站删除友情链接</t>
+  </si>
+  <si>
+    <t>管理员关于我们</t>
+  </si>
+  <si>
+    <t>对开发人员的信息进行修改</t>
+  </si>
+  <si>
+    <t>管理员联系我们</t>
+  </si>
+  <si>
+    <t>对管理员的信息进行修改</t>
+  </si>
+  <si>
+    <t>管理员帮助中心</t>
+  </si>
+  <si>
+    <t>点击帮助中心可下载网站用户手册</t>
   </si>
   <si>
     <t>合计</t>
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -461,6 +461,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -470,7 +517,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,105 +582,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -592,19 +592,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +694,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,151 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,15 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -821,6 +812,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +850,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -859,30 +883,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -891,10 +891,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,137 +903,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,10 +1062,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1386,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,170 +1500,210 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" ht="135" spans="1:6">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="121.5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" ht="27" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" ht="135" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="81" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" ht="108" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1668,10 +1711,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1679,46 +1722,54 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" ht="135" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1726,10 +1777,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1737,10 +1788,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1748,10 +1799,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1759,10 +1810,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1770,10 +1821,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1781,10 +1832,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1792,10 +1843,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1803,10 +1854,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1814,10 +1865,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1825,10 +1876,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1836,10 +1887,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1847,10 +1898,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1858,10 +1909,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1869,10 +1920,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1880,10 +1931,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1891,10 +1942,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1902,10 +1953,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -1913,10 +1964,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1924,10 +1975,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -1935,76 +1986,72 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="27" spans="1:6">
       <c r="A51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" ht="27" spans="1:6">
       <c r="A52" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" ht="27" spans="1:6">
       <c r="A54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" ht="27" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2012,198 +2059,73 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" ht="94.5" spans="1:6">
-      <c r="A65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" ht="94.5" spans="1:6">
-      <c r="A66" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" ht="94.5" spans="1:6">
-      <c r="A68" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" ht="94.5" spans="1:6">
-      <c r="A70" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="6" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="6" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B77" s="10"/>
@@ -2248,33 +2170,6 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/管理员优先级打分表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>软件工程系列课程教学辅助网站管理员优先级打分表（作者：G18）</t>
   </si>
@@ -67,7 +67,7 @@
     <t>处理用户注册申请</t>
   </si>
   <si>
-    <t>在用户注册后接受用户注册信息，审核并选择是否通过用户注册，并给用户标明身份</t>
+    <t>在用户注册后接受用户注册信息，审核身份证信息以及身份证正反面照片的上传，并选择是否通过用户注册，并给用户标明身份</t>
   </si>
   <si>
     <t>删除用户</t>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t>对指定课程添加相关链接</t>
-  </si>
-  <si>
-    <t>修改课程相关链接</t>
-  </si>
-  <si>
-    <t>对指定课程修改相关链接</t>
   </si>
   <si>
     <t>删除课程相关链接</t>
@@ -403,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -453,6 +447,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -461,45 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -509,79 +570,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -592,187 +586,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,17 +780,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,44 +843,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,137 +897,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,9 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1389,16 +1380,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
@@ -1500,7 +1491,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="27" spans="1:6">
+    <row r="6" ht="40.5" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1984,16 +1975,16 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="27" spans="1:6">
       <c r="A50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" ht="27" spans="1:6">
       <c r="A51" s="6" t="s">
@@ -2006,20 +1997,20 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" ht="27" spans="1:6">
-      <c r="A52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>109</v>
-      </c>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
+    <row r="53" ht="27" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2035,16 +2026,16 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" ht="27" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
@@ -2057,19 +2048,16 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2077,106 +2065,98 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A77:G81"/>
+    <mergeCell ref="A76:G80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
